--- a/_testing/output/tablex_test3.xlsx
+++ b/_testing/output/tablex_test3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="208" uniqueCount="35">
   <si>
     <t>Test 3: Origin x Repair Record</t>
   </si>
@@ -124,10 +124,1181 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="284">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="567">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1309,7 +2480,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="181">
+  <borders count="361">
     <border>
       <left/>
       <right/>
@@ -2553,11 +3724,1247 @@
       <bottom style="thin"/>
       <diagonal style="none"/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -3264,6 +5671,714 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="283" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="0" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="0" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="0" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="0" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3282,346 +6397,346 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" style="3" customWidth="true"/>
-    <col min="3" max="8" width="16.7109375" style="4" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" style="182" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" style="183" customWidth="true"/>
+    <col min="3" max="8" width="16.7109375" style="184" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="30" customHeight="true">
-      <c r="A1" s="37" t="s">
+    <row r="1" s="181" customFormat="true" ht="30" customHeight="true">
+      <c r="A1" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="217" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="247" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="248" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="265" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="287" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="110" t="s">
+      <c r="H3" s="290" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="292" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="293" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="295" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="297" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="301" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="302" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="123" t="s">
+      <c r="G5" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="124" t="s">
+      <c r="H5" s="304" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="306" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="128" t="s">
+      <c r="E6" s="308" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="309" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="130" t="s">
+      <c r="G6" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="311" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="316" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="137" t="s">
+      <c r="G7" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="138" t="s">
+      <c r="H7" s="318" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="320" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="322" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="145" t="s">
+      <c r="H8" s="325" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B9" s="326" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="328" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="329" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="330" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="331" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="152" t="s">
+      <c r="H9" s="332" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="333" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="334" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="335" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="157" t="s">
+      <c r="F10" s="337" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="158" t="s">
+      <c r="G10" s="338" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="159" t="s">
+      <c r="H10" s="339" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="340" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="341" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="162" t="s">
+      <c r="D11" s="342" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="164" t="s">
+      <c r="F11" s="344" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="345" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="166" t="s">
+      <c r="H11" s="346" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="347" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="348" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="169" t="s">
+      <c r="D12" s="349" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="350" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="351" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="352" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="173" t="s">
+      <c r="H12" s="353" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="354" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="355" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="356" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="357" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="178" t="s">
+      <c r="F13" s="358" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="359" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="180" t="s">
+      <c r="H13" s="360" t="s">
         <v>34</v>
       </c>
     </row>
